--- a/biology/Botanique/Pierre_Chouard/Pierre_Chouard.xlsx
+++ b/biology/Botanique/Pierre_Chouard/Pierre_Chouard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Chouard (Paris, 29 octobre 1903 - Paris, 11 décembre 1983) est un botaniste français, spécialiste de la physiologie végétale.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il entre à l'École normale supérieure, dans la promotion 1924[1], et obtient l'agrégation de sciences naturelles en 1927[2].
-Il participa, en 1930, à la formation de la Station internationale de géobotanique méditerranéenne et alpine de Montpellier[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il entre à l'École normale supérieure, dans la promotion 1924, et obtient l'agrégation de sciences naturelles en 1927.
+Il participa, en 1930, à la formation de la Station internationale de géobotanique méditerranéenne et alpine de Montpellier.
 Il fut professeur de physiologie végétale à la Sorbonne et directeur du phytotron de Gif-sur-Yvette.
-En 1962, il apporte, avec son ami Henri Gaussen, son appui à la création du Parc national des Pyrénées[4]. Tous deux feront ensuite partie du Comité scientifique du parc[4].
+En 1962, il apporte, avec son ami Henri Gaussen, son appui à la création du Parc national des Pyrénées. Tous deux feront ensuite partie du Comité scientifique du parc.
 Il était membre de l'Académie d'agriculture de France et président de la Société botanique de France en 1949-1950.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Ses publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nouvelles observations sur les éléments floristiques du Massif de Néouvieille et de la Vallée d'Aure, 1933, 4 p.
 La multiplication végétative et le bourgeonnement chez les plantes vasculaires, Hermann &amp; Cie, 1934, 48 p.
